--- a/resources/results/kegg/David_enriched_pathways.xlsx
+++ b/resources/results/kegg/David_enriched_pathways.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairedeng/code/mirna/resources/results/kegg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE700A6-40BF-014B-9248-995FC723C35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9164241-8B53-8E49-A050-EDAC288C6E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-68800" yWindow="500" windowWidth="68800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-68800" yWindow="500" windowWidth="68800" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="David_enriched_pathways" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>Term</t>
   </si>
@@ -194,6 +195,33 @@
   <si>
     <t>Count of target genes</t>
   </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Breast cancer</t>
+  </si>
+  <si>
+    <t>Gastric cancer</t>
+  </si>
+  <si>
+    <t>MicroRNAs in cancer</t>
+  </si>
+  <si>
+    <t>Salmonella infection</t>
+  </si>
+  <si>
+    <t>Pathogenic Escherichia coli infection</t>
+  </si>
+  <si>
+    <t>Human cytomegalovirus infection</t>
+  </si>
+  <si>
+    <t>Chemical carcinogenesis - receptor activation</t>
+  </si>
+  <si>
+    <t>Human T-cell leukemia virus 1 infection</t>
+  </si>
 </sst>
 </file>
 
@@ -203,7 +231,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -334,6 +362,20 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -636,7 +678,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -679,8 +721,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -690,8 +733,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="11" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -725,6 +773,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -6465,6 +6514,5440 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729E45AC-524C-8346-FA00-49BBD2FD01DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="203200"/>
+          <a:ext cx="101600" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C672E51-DB20-5E09-D63F-5B3E4E5C5C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="406400"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE167CB-286B-1221-BFB4-4C61A008902C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="609600"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459415DE-A30F-9065-354D-1B91312E9174}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="812800"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE95BD90-EEDC-ACDA-CE7A-EE4281811D65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="1016000"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A6A6D28-4F7F-BFBE-2207-3A61116D16F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="1219200"/>
+          <a:ext cx="101600" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FECF4D10-C6D4-0B26-F233-1DFC6F22D9A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="1422400"/>
+          <a:ext cx="101600" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3B8DB1-318E-E86D-353C-18AEA149F2AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="1625600"/>
+          <a:ext cx="165100" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802D1782-EE59-BCEC-B3BB-600B32C20A6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="1828800"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0223D6A3-AC43-80D5-EF5C-9932136D2412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="2032000"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8FCF4D7-017B-73C5-501C-C1A97D82E541}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="2235200"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{389A1E6A-EB3C-F363-2642-2F838B427DE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="2438400"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFBEF73B-DDB2-0F46-51C7-0D283A25114F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="2641600"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98862AE6-8F3B-A4EE-14BD-74DF1E6FB630}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="2844800"/>
+          <a:ext cx="127000" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55339C73-232B-2569-8B99-F5985C5F77C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="3048000"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EEC3989-8915-C874-1D9E-F72484076471}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="3251200"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1494D7B-57ED-BC5C-C227-A4D59F8AE50D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="3454400"/>
+          <a:ext cx="114300" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56FFB3C-B741-97F0-9DBD-D899B4FC2EB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="3657600"/>
+          <a:ext cx="101600" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE7D42E-BF76-CB57-CC28-FB1C64CB861C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="3860800"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D45F0F-1E3D-DC7F-350F-29982A4D989B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="4064000"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A57510D1-003B-6D47-DEDD-F7E8F738FE8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="4267200"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBEFDB8A-6CC0-DDC9-B970-3AADF10D5B52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="4470400"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E88EA54F-BEFB-9AA6-A26B-493BC78FBE59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="4673600"/>
+          <a:ext cx="114300" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06A01C8E-361B-CBDA-5DEE-B6559697E1A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="4876800"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E45ED7-E55D-1A17-532D-801B29947322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="5080000"/>
+          <a:ext cx="101600" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D710C1D-29A5-CBC9-B282-6CCF45D252E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="5283200"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162FF677-48F2-DFAA-C3E6-78F80E466F83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="5486400"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93898540-E151-880C-D45F-4211EC409ED6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="5689600"/>
+          <a:ext cx="63500" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE1FB4D5-A978-B621-6B7F-B604F85D8DE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="5892800"/>
+          <a:ext cx="114300" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37CAE63F-4721-30F7-60BA-B03C8DCD7F81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="6096000"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB34C955-3283-5D6A-A528-9FDA29E53F34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="6299200"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47B689A6-DCB3-3CC2-EE7E-8C35FCB53460}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="6502400"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C108DA4-B9A8-80D7-EE2B-EEA7EE24C582}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="6705600"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B56DC4-F0DD-01DD-72C9-6DD8C6D00104}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="6908800"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B19876-673A-F06A-47E8-3D30081CA441}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="7112000"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF42FC0-F65B-9BF5-B22B-664B602F0A1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="7315200"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C421BC27-627B-F629-728A-E5F76C245E6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="7518400"/>
+          <a:ext cx="101600" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB06F3C3-BC3E-1AA7-3A1D-AB45F48D3496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="7721600"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D8D8993-2CB5-7453-B09B-3D4C81127549}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="7924800"/>
+          <a:ext cx="101600" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575CAF47-C2BC-BEB9-C00E-7C2AD5B9B61B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="8128000"/>
+          <a:ext cx="63500" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37523765-7539-99C4-3B5F-B22480B3F567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="8331200"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A3ECC01-C827-B136-4F0F-21FCA6028E5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="8534400"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9675CF1A-3DE8-47FD-9A52-C1DAC8F0EEF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="8737600"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{511A3EC0-5C42-87DE-75BE-128FB732D9D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="8940800"/>
+          <a:ext cx="63500" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57B77921-E406-1645-2B76-3BB3C958726F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="9144000"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B09456F-7D90-4EC7-863B-A2B14DD38163}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="9347200"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9852E6-F348-4418-0030-212B2439FAAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="9550400"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD3A7593-D853-EFC8-7124-320E3FD8F0F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="9753600"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B01AA6B-A5A3-1334-8FDD-88CCE1CE4D6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="9956800"/>
+          <a:ext cx="63500" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC5D5F00-BD7C-C929-0109-4634A7D027AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="10160000"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67BE482-75AA-159A-BFC4-5BBF4B077B4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="10363200"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45ED3846-7AC4-E5CA-7EA1-A043F0F2D7F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="10566400"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD69207F-970D-85C8-E969-DE052374C5F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="10769600"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BBE5F00-B131-FCA1-7B35-167255C03E76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="10972800"/>
+          <a:ext cx="101600" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692BFB94-295C-BD38-81B6-4D7176F09B86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="11176000"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA61CF1-727E-A243-1672-12766F8692B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="11379200"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E4E2C9-5F76-F3BB-2366-AF849D3E07AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="11582400"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BEFD0AE-8691-0278-4B8E-828418A780C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="11785600"/>
+          <a:ext cx="63500" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B664FD94-09E0-0CCE-08AB-DB145C3BBABB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="11988800"/>
+          <a:ext cx="63500" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC0C5741-141A-5AC8-F078-D97C2291E9DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="12192000"/>
+          <a:ext cx="63500" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A329AE-E7E1-4AD5-81BD-C46F2FBCDB6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="12395200"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2495DE-50FD-4F7F-E7F0-BE4611BC750B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="12598400"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA4F2114-9AB5-DF31-B803-6CC777DE27AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="12801600"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6CC832-3A0E-DEE9-5DC7-7B8014A0850F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="13004800"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BB7403-B0B5-D610-9DFF-A8A847018C9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="13208000"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04BECDF-CFE4-5EDE-262C-552361D1C92E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="13411200"/>
+          <a:ext cx="63500" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BEAB2DB-8819-84EC-D0F9-704728CA3692}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="13614400"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6770A8A-8307-165C-58B6-8CEE3E15B634}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="13817600"/>
+          <a:ext cx="63500" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF2A91F6-72F2-BBF7-9743-C1331C127DF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="14020800"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD9BF1D1-1988-3597-8B2D-B620A9FFF0F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="14224000"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3580791F-E452-7BA6-E971-0309F7C33609}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="14427200"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C67735-E393-487C-6C84-646C5FE749EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="14630400"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188388CC-9480-BC3F-2BE7-0A8E1C02B12B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="14833600"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC5875FD-4CDE-A4F2-E8CE-6A4CDA02FE3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="15036800"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5101E3D-B419-4EB0-BE9D-F8BC170D7199}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="15240000"/>
+          <a:ext cx="63500" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D88A86A2-4AC0-2C9B-20D3-7FD8256F5903}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="15443200"/>
+          <a:ext cx="63500" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257717E0-6735-6B6E-7EDF-A05649DA9EE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="15646400"/>
+          <a:ext cx="63500" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F91C017B-145C-DF79-B4AE-99D494080F93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="15849600"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38BA6D98-39A6-D342-F46E-45F4B47BFFA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="16052800"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1984A68A-666D-A86B-A1AB-F108076EC0F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="16256000"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DDA9BDA-591C-7B89-CB33-9700D19483A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="16459200"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA6157A3-AE14-AB8C-7F0F-2AC8B3EB44CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="16662400"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E09185D-28F8-E9C6-AA0A-AE782C500021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="16865600"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2D4418B-9528-B527-6E8C-3EE2FF9FA3D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="17068800"/>
+          <a:ext cx="63500" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE6AF67-0605-AAA8-F041-2B4B327963D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="17272000"/>
+          <a:ext cx="76200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AB9E837-617B-0AD4-BA87-360B04130715}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="17475200"/>
+          <a:ext cx="63500" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE889A3-39E3-C89B-D931-86B93B8F0B5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="17678400"/>
+          <a:ext cx="88900" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB2DC6A-1FE6-35B7-6B81-02688298143C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="17881600"/>
+          <a:ext cx="63500" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="BARS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEFCFF39-2F29-CD18-D153-5B4AB7CD44F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3302000" y="18084800"/>
+          <a:ext cx="63500" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6764,7 +12247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7441,4 +12924,332 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0BF641-96D1-9C45-9A96-7028391BAF5E}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="53.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8">
+        <v>53</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8">
+        <v>38</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5.8E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8">
+        <v>33</v>
+      </c>
+      <c r="C4" s="6">
+        <v>7.9000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="8">
+        <v>33</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="8">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="8">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.6000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6">
+        <v>8.1999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="8">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="8">
+        <v>24</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2.9E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="8">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1.2999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="8">
+        <v>22</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1.6000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="8">
+        <v>22</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3.1E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8">
+        <v>22</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3.1E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="8">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6">
+        <v>4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="8">
+        <v>22</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="8">
+        <v>22</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="8">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6">
+        <v>7.4999999999999993E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="8">
+        <v>21</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="8">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="8">
+        <v>21</v>
+      </c>
+      <c r="C25" s="6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C38">
+    <sortCondition descending="1" ref="B1:B38"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://david.ncifcrf.gov/chartReport.jsp?d-16544-p=1&amp;d-16544-o=2&amp;annot=52&amp;d-16544-s=2" xr:uid="{59E77656-7164-E341-BBE6-D878FA52949D}"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://david.ncifcrf.gov/chartReport.jsp?d-16544-p=1&amp;d-16544-o=1&amp;annot=52&amp;d-16544-s=5" xr:uid="{BC68B69E-BA5D-E846-9281-C03E82B6F030}"/>
+    <hyperlink ref="C1" r:id="rId3" display="https://david.ncifcrf.gov/chartReport.jsp?d-16544-p=1&amp;d-16544-o=1&amp;annot=52&amp;d-16544-s=7" xr:uid="{C9B6A54C-4DCA-0541-8638-05E5481441D2}"/>
+    <hyperlink ref="A14" r:id="rId4" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa04550$Signaling%20pathways%20regulating%20pluripotency%20of%20stem%20cells&amp;termId=520070954&amp;source=kegg" xr:uid="{2859E071-0418-C444-8E82-CD1A3664ACDC}"/>
+    <hyperlink ref="A22" r:id="rId5" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa04068$FoxO%20signaling%20pathway&amp;termId=520070905&amp;source=kegg" xr:uid="{DAC2BF2A-DA9F-024A-B438-875F4F49F56A}"/>
+    <hyperlink ref="A15" r:id="rId6" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa05224$Breast%20cancer&amp;termId=520071104&amp;source=kegg" xr:uid="{95B139CC-00A4-3B42-B14F-52D3FF6AF4F5}"/>
+    <hyperlink ref="A16" r:id="rId7" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa05226$Gastric%20cancer&amp;termId=520071106&amp;source=kegg" xr:uid="{EF213CDC-F5D8-924D-B0DC-CD0E21D2B483}"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa04360$Axon%20guidance&amp;termId=520070942&amp;source=kegg" xr:uid="{3A361FD3-DAAF-6249-A25E-165391CD5ED8}"/>
+    <hyperlink ref="A7" r:id="rId9" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa05205$Proteoglycans%20in%20cancer&amp;termId=520071086&amp;source=kegg" xr:uid="{B7BABF77-2C1E-0A4E-AEB4-C20D5910F99D}"/>
+    <hyperlink ref="A2" r:id="rId10" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa05200$Pathways%20in%20cancer&amp;termId=520071082&amp;source=kegg" xr:uid="{AD2168B0-C9A2-614B-929C-8FD2B5C34E5A}"/>
+    <hyperlink ref="A17" r:id="rId11" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa04150$mTOR%20signaling%20pathway&amp;termId=520070925&amp;source=kegg" xr:uid="{2F133D9D-F1E0-3C45-B5C9-B62FB994AB3E}"/>
+    <hyperlink ref="A18" r:id="rId12" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa04218$Cellular%20senescence&amp;termId=520070934&amp;source=kegg" xr:uid="{CC27A103-B3CB-224A-80F6-16C223DB2F6F}"/>
+    <hyperlink ref="A3" r:id="rId13" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa04151$PI3K-Akt%20signaling%20pathway&amp;termId=520070926&amp;source=kegg" xr:uid="{05D04F30-0C3B-4C44-A5A0-863592C70D9F}"/>
+    <hyperlink ref="A4" r:id="rId14" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa04010$MAPK%20signaling%20pathway&amp;termId=520070893&amp;source=kegg" xr:uid="{E4A7D6F7-6FBF-BA47-884A-5548BFC4A4F1}"/>
+    <hyperlink ref="A11" r:id="rId15" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa04510$Focal%20adhesion&amp;termId=520070948&amp;source=kegg" xr:uid="{1590FBCE-84BE-7E4B-BBE5-1C40B53A3BAB}"/>
+    <hyperlink ref="A5" r:id="rId16" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa05206$MicroRNAs%20in%20cancer&amp;termId=520071087&amp;source=kegg" xr:uid="{E92BE0CB-84A7-7C44-8164-2CF4ED412202}"/>
+    <hyperlink ref="A8" r:id="rId17" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa04810$Regulation%20of%20actin%20cytoskeleton&amp;termId=520070995&amp;source=kegg" xr:uid="{842DEDED-7CC1-EB47-AB55-6788CBA71CE2}"/>
+    <hyperlink ref="A6" r:id="rId18" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa05165$Human%20papillomavirus%20infection&amp;termId=520071075&amp;source=kegg" xr:uid="{1DAC985D-7897-9A4F-A9FF-1FDD27636176}"/>
+    <hyperlink ref="A19" r:id="rId19" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa05202$Transcriptional%20misregulation%20in%20cancer&amp;termId=520071083&amp;source=kegg" xr:uid="{01385565-71F4-C245-8CD8-CFBFC558AE8B}"/>
+    <hyperlink ref="A9" r:id="rId20" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa05132$Salmonella%20infection&amp;termId=520071058&amp;source=kegg" xr:uid="{7683F605-C47F-654A-96B1-108A7E44EFEC}"/>
+    <hyperlink ref="A12" r:id="rId21" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa04014$Ras%20signaling%20pathway&amp;termId=520070895&amp;source=kegg" xr:uid="{660CB949-BE1D-D34E-BD9A-00C9C5E1D880}"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa05130$Pathogenic%20Escherichia%20coli%20infection&amp;termId=520071056&amp;source=kegg" xr:uid="{D892A9BD-936D-614F-84AC-D23C8F8E655A}"/>
+    <hyperlink ref="A13" r:id="rId23" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa04144$Endocytosis&amp;termId=520070921&amp;source=kegg" xr:uid="{E10D85E2-AA4E-394D-B54C-9B2C40556CA6}"/>
+    <hyperlink ref="A20" r:id="rId24" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa05163$Human%20cytomegalovirus%20infection&amp;termId=520071073&amp;source=kegg" xr:uid="{3D23FF91-801F-6C47-A8D4-66342AEA253E}"/>
+    <hyperlink ref="A21" r:id="rId25" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa04024$cAMP%20signaling%20pathway&amp;termId=520070899&amp;source=kegg" xr:uid="{D11EC6D6-80FA-F141-BBDF-60ABD78F8715}"/>
+    <hyperlink ref="A24" r:id="rId26" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa05207$Chemical%20carcinogenesis%20-%20receptor%20activation&amp;termId=520071088&amp;source=kegg" xr:uid="{56228626-8A2F-C74B-AB9C-7DCB095ECDF8}"/>
+    <hyperlink ref="A25" r:id="rId27" display="https://david.ncifcrf.gov/kegg.jsp?path=hsa05166$Human%20T-cell%20leukemia%20virus%201%20infection&amp;termId=520071076&amp;source=kegg" xr:uid="{09FADEEF-6D0E-E549-B906-7F5AE92C2DD6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId28"/>
+</worksheet>
 </file>